--- a/assignment/1.xlsx
+++ b/assignment/1.xlsx
@@ -95,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,11 +119,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -167,12 +162,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,24 +188,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -335,11 +333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139439400"/>
-        <c:axId val="2140240184"/>
+        <c:axId val="2119995624"/>
+        <c:axId val="2144107816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139439400"/>
+        <c:axId val="2119995624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140240184"/>
+        <c:crossAx val="2144107816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -423,7 +421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140240184"/>
+        <c:axId val="2144107816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139439400"/>
+        <c:crossAx val="2119995624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -619,7 +617,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -658,7 +656,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,6 +698,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -740,6 +741,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>199466.6666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -755,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120868200"/>
-        <c:axId val="2030835656"/>
+        <c:axId val="2143895528"/>
+        <c:axId val="2144099320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120868200"/>
+        <c:axId val="2143895528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030835656"/>
+        <c:crossAx val="2144099320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2030835656"/>
+        <c:axId val="2144099320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120868200"/>
+        <c:crossAx val="2143895528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,7 +1382,7 @@
   <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1412,10 +1416,10 @@
       <c r="C4" s="7">
         <v>200000</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <f>PMT(C5/12,C6*12,-1)</f>
         <v>5.9955052515275236E-3</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <f>EOMONTH(C7,0)-C7</f>
         <v>16</v>
       </c>
@@ -1457,7 +1461,7 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f>(C5/360)*C4*C8</f>
         <v>533.33333333333337</v>
       </c>
@@ -1497,28 +1501,29 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <f>EOMONTH(C7,0)</f>
         <v>41670</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="18">
         <v>0</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="19">
         <f>C4</f>
         <v>200000</v>
       </c>
       <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
+        <f>C4</f>
+        <v>200000</v>
+      </c>
+      <c r="E13" s="21">
         <f>C9</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="22">
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="19">
         <f>C13</f>
         <v>200000</v>
       </c>
@@ -1535,15 +1540,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>C4</f>
+        <f>G13</f>
         <v>200000</v>
       </c>
       <c r="D14" s="10">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+        <f>C14</f>
+        <v>200000</v>
+      </c>
+      <c r="E14" s="10">
+        <f>$C$5/12*C14</f>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="11">
+        <f>D14-E13</f>
+        <v>199466.66666666666</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(B14&gt;$C$6*12,0,C14-F14)</f>
+        <v>533.33333333334303</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1785,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="10">
         <f>D14*2</f>
-        <v>14</v>
+        <v>400000</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>

--- a/assignment/1.xlsx
+++ b/assignment/1.xlsx
@@ -95,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -119,6 +119,11 @@
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -162,12 +167,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -188,27 +193,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -333,11 +335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119995624"/>
-        <c:axId val="2144107816"/>
+        <c:axId val="2139439400"/>
+        <c:axId val="2140240184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119995624"/>
+        <c:axId val="2139439400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144107816"/>
+        <c:crossAx val="2140240184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -421,7 +423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144107816"/>
+        <c:axId val="2140240184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -466,7 +468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119995624"/>
+        <c:crossAx val="2139439400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,7 +619,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>200000.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
@@ -656,7 +658,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400000.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,9 +700,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>1000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -741,9 +740,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>199466.6666666667</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -759,11 +755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143895528"/>
-        <c:axId val="2144099320"/>
+        <c:axId val="2120868200"/>
+        <c:axId val="2030835656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143895528"/>
+        <c:axId val="2120868200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2144099320"/>
+        <c:crossAx val="2030835656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144099320"/>
+        <c:axId val="2030835656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143895528"/>
+        <c:crossAx val="2120868200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1382,7 +1378,7 @@
   <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1416,10 +1412,10 @@
       <c r="C4" s="7">
         <v>200000</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="21">
         <f>PMT(C5/12,C6*12,-1)</f>
         <v>5.9955052515275236E-3</v>
       </c>
@@ -1452,7 +1448,7 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <f>EOMONTH(C7,0)-C7</f>
         <v>16</v>
       </c>
@@ -1461,7 +1457,7 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="18">
         <f>(C5/360)*C4*C8</f>
         <v>533.33333333333337</v>
       </c>
@@ -1501,29 +1497,28 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17">
+      <c r="A13" s="14">
         <f>EOMONTH(C7,0)</f>
         <v>41670</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="16">
         <f>C4</f>
         <v>200000</v>
       </c>
       <c r="D13" s="20">
-        <f>C4</f>
-        <v>200000</v>
-      </c>
-      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
         <f>C9</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <f>C13</f>
         <v>200000</v>
       </c>
@@ -1540,25 +1535,15 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>G13</f>
+        <f>C4</f>
         <v>200000</v>
       </c>
       <c r="D14" s="10">
-        <f>C14</f>
-        <v>200000</v>
-      </c>
-      <c r="E14" s="10">
-        <f>$C$5/12*C14</f>
-        <v>1000</v>
-      </c>
-      <c r="F14" s="11">
-        <f>D14-E13</f>
-        <v>199466.66666666666</v>
-      </c>
-      <c r="G14" s="10">
-        <f>IF(B14&gt;$C$6*12,0,C14-F14)</f>
-        <v>533.33333333334303</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1785,7 +1770,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="10">
         <f>D14*2</f>
-        <v>400000</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
